--- a/biology/Botanique/Polyscias_maraisiana/Polyscias_maraisiana.xlsx
+++ b/biology/Botanique/Polyscias_maraisiana/Polyscias_maraisiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyscias maraisiana ou Gastonia mauritiana (bois bœuf) est une espèce de plantes endémiques de l'île Maurice appartenant à la famille des Araliaceae, qui se plaît dans les zones marécageuses. C'est un arbre que l'on trouve dans la plaine de Yémen et sur la côte est de l'île, ainsi qu'à l'île aux Aigrettes. Cette espèce est menacée de disparition.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gastonia mauritiana Marais
 Terminalia elegans W.Bull, 1866
